--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -3380,7 +3380,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14/05/2014</t>
+          <t>15/05/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -5763,7 +5763,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/05/2014</t>
+          <t>14/05/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -6959,7 +6959,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F139" t="n">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9194,6 +9194,94 @@
         </is>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>dfdsfsdf</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340883&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Andacollo</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>EIA 2015</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130993090&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Andacollo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de Calama</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9720</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/12/2021</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154247580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/09/2021</t>
+          <t>07/12/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153214766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154247580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Don Oscar Solar</t>
+          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Don Esteban SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de Calama</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9500</v>
+        <v>9720</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>20/09/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151505671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153214766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Antonia Solar</t>
+          <t>Parque Fotovoltaico Don Oscar Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Quebrada del Sol SpA</t>
+          <t>Don Esteban SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151502310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151505671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Actualización RCA N°27/2012 y regularización Plan de Cierre Vertedero El Gallo de la Comuna de Andacollo</t>
+          <t>Parque Fotovoltaico Antonia Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Andacollo</t>
+          <t>Quebrada del Sol SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>61</v>
+        <v>9500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145840697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151502310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Actualización RCA N°27/2012 y regularización Plan de Cierre Vertedero El Gallo de la Comuna de Andacollo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Ilustre Municipalidad de Andacollo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>61</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145840697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Teck CDA</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145199834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Continuidad Operacional Teck CDA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145199834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Optimización de las actividades de Procesamiento del Mineral Supérgeno</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03/08/2017</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132596152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN DE LAS ACTIVIDADES DE PROCESAMIENTO DEL MINERAL SUPÉRGENO</t>
+          <t>Optimización de las actividades de Procesamiento del Mineral Supérgeno</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>26/04/2017</t>
+          <t>03/08/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132329978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132596152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Optimización de las actividades de procesamiento del Mineral Supérgeno</t>
+          <t>OPTIMIZACIÓN DE LAS ACTIVIDADES DE PROCESAMIENTO DEL MINERAL SUPÉRGENO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16/02/2017</t>
+          <t>26/04/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132170175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132329978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Aguas Servidas, comuna de Andacollo, región de Coquimbo</t>
+          <t>Optimización de las actividades de procesamiento del Mineral Supérgeno</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2718</v>
+        <v>1300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/01/2017</t>
+          <t>16/02/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132086191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132170175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/12/2016</t>
+          <t>19/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131961257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132086191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Central de Respaldo El Manzano</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Aguas Servidas, comuna de Andacollo, región de Coquimbo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PRIME ENERGIA SPA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>70000</v>
+        <v>2718</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>22/12/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131007664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131961257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Central de Respaldo El Manzano</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>PRIME ENERGIA SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131007664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Central de Respaldo El Manzano</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PRIME ENERGIA SPA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130911564&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lixiviación de Mineral Heap</t>
+          <t>Central de Respaldo El Manzano</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>PRIME ENERGIA SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8300</v>
+        <v>70000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/03/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130314021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130911564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Lixiviación de Mineral Heap</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>8300</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>11/03/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130314021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación RCA N°16, Continuidad Operacional 2015 - 2020</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129600322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Modificación RCA N°16, Continuidad Operacional 2015 - 2020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129600322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación RCA N°16, Continuidad Operacional 2015 - 2020</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129566691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15/06/2014</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129559014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129566691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Extracción de Aridos e Instalaciones Asociadas: Pozo el Manzano</t>
+          <t>Modificación RCA N°16, Continuidad Operacional 2015 - 2020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/06/2014</t>
+          <t>15/06/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129545951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129559014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Andacollo Oro: Continuidad Operacional 2015 - 2020</t>
+          <t>Proyecto Extracción de Aridos e Instalaciones Asociadas: Pozo el Manzano</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>1700</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14/05/2014</t>
+          <t>13/06/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129479024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129545951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/05/2014</t>
+          <t>14/05/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129456994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129479024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Extracción de Aridos e Instalaciones Asociadas Pozo El Manzano</t>
+          <t>Andacollo Oro: Continuidad Operacional 2015 - 2020</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1870</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/04/2014</t>
+          <t>07/05/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129456994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>04/04/2014</t>
+          <t>23/04/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129370150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Extracción de Aridos e Instalaciones Asociadas Pozo El Manzano</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>1870</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>04/04/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129370150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE ÓXIDO DE CALCIO REGIONES II, III Y IV</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PIETRO DEPETRIS E HIJOS Y CÍA. LTDA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3708</v>
+        <v>1200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128914675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE ÓXIDO DE CALCIO REGIONES II, III Y IV</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>PIETRO DEPETRIS E HIJOS Y CÍA. LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>800</v>
+        <v>3708</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>13/12/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128914675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nuevas pilas de lixiviación</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128642013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Nuevas pilas de lixiviación</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>12500</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128642013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2050</v>
+        <v>12500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1500</v>
+        <v>2475</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2450</v>
+        <v>1500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>15000</v>
+        <v>2450</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Proyecto Andacollo Oro - Medidas para el cumplimiento del Plan de Descontaminación de Andacollo</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RECUPERACION DE SUELOS CONTAMINADOS POR RELAVES ABANDONADOS</t>
+          <t>Proyecto Andacollo Oro - Medidas para el cumplimiento del Plan de Descontaminación de Andacollo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>410</v>
+        <v>32000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>25/06/2012</t>
+          <t>05/07/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6938730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>RECUPERACION DE SUELOS CONTAMINADOS POR RELAVES ABANDONADOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>410</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>25/06/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6938730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LAS REGIONES II-III Y IV</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Importadora y Exportadora Fos Trade Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6862251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LAS REGIONES II-III Y IV</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Importadora y Exportadora Fos Trade Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/05/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6862251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Post Cierre Vertedero El Gallo de la Comuna de Andacollo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ilustre municipalidad de andacollo</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>965</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11/08/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Extracción Gravitacional de Metales</t>
+          <t>Plan de Cierre y Post Cierre Vertedero El Gallo de la Comuna de Andacollo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CORPSA S.A.</t>
+          <t>ilustre municipalidad de andacollo</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>6500</v>
+        <v>965</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/06/2011</t>
+          <t>11/08/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Extracción Gravitacional de Metales</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>CORPSA S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/06/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Planta Metalúrgica Gravitacional Carolina, Tecnología Limpia</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CORPSA S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Planta Metalúrgica Gravitacional Carolina, Tecnología Limpia</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>CORPSA S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>19000</v>
+        <v>150</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>75000</v>
+        <v>19000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PLANTA METALURGICA GRAVITACIONAL DE ORO CAROLINA</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CORPSA S.A.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5072758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>PLANTA METALURGICA GRAVITACIONAL DE ORO CAROLINA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>CORPSA S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>15/11/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5072758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>17700</v>
+        <v>150</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,30 +4360,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental, Planta metalúrgica gravitacional de oro Carolina, proceso metalúrgico de tecnología limpia</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CORPSA S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4923856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,40 +4408,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Estudio de Impacto Ambiental, Planta metalúrgica gravitacional de oro Carolina, proceso metalúrgico de tecnología limpia</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CORPSA S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1750</v>
+        <v>6000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>10/09/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4923856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>600</v>
+        <v>1750</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>15/07/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>410</v>
+        <v>600</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>15/07/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>4050</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>09/11/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,36 +5464,40 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>70000</v>
+        <v>27</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,40 +5512,36 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>28</v>
+        <v>70000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,25 +5571,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación del Proyecto ROM (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,30 +5614,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1390</v>
+        <v>800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>06/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3549594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Modificación y Ampliación del Proyecto ROM (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,30 +5662,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>1390</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>06/03/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3549594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificación de 3,77 km Línea de Transmisión 110 kv El Peñón-Andacollo, sector Carmen de Andacollo (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,30 +5758,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>22/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3436070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE DE ACIDO SULFURICO ENTRE LAS REGIONES I Y V (e-seia)</t>
+          <t>Modificación de 3,77 km Línea de Transmisión 110 kv El Peñón-Andacollo, sector Carmen de Andacollo (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,30 +5806,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>550</v>
+        <v>671</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>28/11/2008</t>
+          <t>22/12/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3267112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3436070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>PROYECTO TRANSPORTE DE ACIDO SULFURICO ENTRE LAS REGIONES I Y V (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>28/11/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3267112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,25 +5955,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,25 +6003,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,25 +6051,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,11 +6099,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6112,12 +6112,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,25 +6195,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,25 +6387,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,25 +6435,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,11 +6531,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6544,12 +6544,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica y Subestación de Distribución (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,30 +6574,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>16400</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>08/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica y Subestación de Distribución (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,30 +6622,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>16400</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>08/07/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Andacollo (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,30 +6814,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Andacollo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2736952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Plan Regulador Comunal de Andacollo (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,20 +6862,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Ilustre Municipalidad de Andacollo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2736952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,26 +6900,30 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Modificación Plan Minero 2007-2010</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>18/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6929,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2687797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,14 +6948,10 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELECTRICA 1X220 KV PAN DE AZUCAR ANDACOLLO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Modificación Plan Minero 2007-2010</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>8300</v>
+        <v>3500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>12/12/2007</t>
+          <t>18/01/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2572700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2687797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LINEA DE TRANSMISION ELÉCTRICA 1X220 KV PAN DE AZUCAR- ANDACOLLO (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN ELECTRICA 1X220 KV PAN DE AZUCAR ANDACOLLO (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,17 +7015,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>03/12/2007</t>
+          <t>12/12/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2543912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2572700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero de Andacollo (e-seia)</t>
+          <t>LINEA DE TRANSMISION ELÉCTRICA 1X220 KV PAN DE AZUCAR- ANDACOLLO (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Andacollo</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>86</v>
+        <v>8300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>16/11/2007</t>
+          <t>03/12/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2505062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2543912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Extensión Oeste del Actual Area de Lixiviación (e-seia)</t>
+          <t>Plan de Cierre Vertedero de Andacollo (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,15 +7103,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Ilustre Municipalidad de Andacollo</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1524</v>
+        <v>86</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>07/11/2007</t>
+          <t>16/11/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2475610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2505062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Extensión Oeste del Actual Area de Lixiviación (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,20 +7146,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>429</v>
+        <v>1524</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>07/11/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2475610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,25 +7295,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,15 +7343,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,25 +7391,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,25 +7439,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,25 +7535,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,17 +7591,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -7639,17 +7639,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,15 +7679,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,17 +7735,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Plan Minero 2007-2010 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7770,30 +7770,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Minero 2007-2010 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7818,16 +7818,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,25 +7871,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,25 +7967,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Botadero de Estériles Oeste (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8010,30 +8010,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>17/03/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AMPLIACION DE RUTAS TRANSPORTE TERRESTRE DE SUSTANCIAS TOXICAS (e-seia)</t>
+          <t>Botadero de Estériles Oeste (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,30 +8058,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>17/03/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1342927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,30 +8096,30 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Hipógeno</t>
+          <t>AMPLIACION DE RUTAS TRANSPORTE TERRESTRE DE SUSTANCIAS TOXICAS (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>350000</v>
+        <v>69</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1305291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1342927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,30 +8144,30 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Hipógeno</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>72</v>
+        <v>350000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1305291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8215,17 +8215,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,25 +8255,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8311,17 +8311,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Adecuación y Mejoramiento del Area de lixiviación (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8346,30 +8346,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1064309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Adecuación y Mejoramiento del Area de lixiviación (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8394,20 +8394,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1064309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,20 +8442,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PROYECTO DESARROLLO FASE IV - ANDACOLLO ORO (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=645194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Lixiviación de Minerales de Baja Ley (ROM) (e-seia)</t>
+          <t>PROYECTO DESARROLLO FASE IV - ANDACOLLO ORO (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,15 +8543,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>22/12/2004</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=545412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=645194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Lixiviación de Minerales de Baja Ley (ROM) (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8586,20 +8586,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2119</v>
+        <v>4400</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>22/12/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=545412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Adecuación y mejoramiento del área de lixiviación (e-seia)</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8634,20 +8634,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2500</v>
+        <v>2119</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05/03/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=55252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Adecuación y mejoramiento del área de lixiviación (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,20 +8682,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>05/03/2003</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=55252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Botadero Sur proyecto Andacollo Cobre</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,20 +8730,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>19/08/2002</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Modificación y Ampliación Botadero Sur proyecto Andacollo Cobre</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,20 +8778,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>19/08/2002</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8831,7 +8831,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Secado y Deshidratado de Algas Pardas Picadas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8874,20 +8874,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Comercial Servicios Ingenieria y Exportacion MDos Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/11/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ampliación Botadero Norte</t>
+          <t>Secado y Deshidratado de Algas Pardas Picadas</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8927,15 +8927,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Comercial Servicios Ingenieria y Exportacion MDos Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>02/11/2000</t>
+          <t>13/11/2001</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,30 +8960,30 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Ampliación Botadero Norte</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3500</v>
+        <v>30</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>02/11/2000</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,40 +9008,40 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Proyecto de Expansión Pila de Lixiviación-fase IV</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>23/03/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Camión en las Regiones II y IV</t>
+          <t>Proyecto de Expansión Pila de Lixiviación-fase IV</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9066,30 +9066,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>30/09/1999</t>
+          <t>23/03/2000</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Transporte de Ácido Sulfúrico en Camión en las Regiones II y IV</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9119,15 +9119,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/09/1999</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,30 +9152,30 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Proyecto Minero Andacollo-Cobre</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>63800</v>
+        <v>2500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>11/01/1995</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,12 +9200,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>dfdsfsdf</t>
+          <t>Proyecto Minero Andacollo-Cobre</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -9215,21 +9215,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Empresa Prueba de Ingreso Proyecto</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" t="inlineStr"/>
+        <v>63800</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>11/01/1995</t>
+        </is>
+      </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Eliminados</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,12 +9248,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>EIA 2015</t>
+          <t>dfdsfsdf</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -9273,10 +9277,54 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340883&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Andacollo</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>EIA 2015</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130993090&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr">
+      <c r="J187" t="inlineStr">
         <is>
           <t>Andacollo</t>
         </is>

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F140" t="n">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
+          <t>Línea de Transmisión y Central BESS Halcón 9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Conexión Kimal Lo Aguirre S.A</t>
+          <t>BESS Halcón 9 SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>120780</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160823464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de Calama</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9720</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/12/2021</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154247580&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/09/2021</t>
+          <t>07/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153214766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154247580&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Don Oscar Solar</t>
+          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Don Esteban SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de Calama</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9500</v>
+        <v>9720</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>20/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151505671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153214766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Antonia Solar</t>
+          <t>Parque Fotovoltaico Don Oscar Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Quebrada del Sol SpA</t>
+          <t>Don Esteban SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151502310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151505671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Actualización RCA N°27/2012 y regularización Plan de Cierre Vertedero El Gallo de la Comuna de Andacollo</t>
+          <t>Parque Fotovoltaico Antonia Solar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Andacollo</t>
+          <t>Quebrada del Sol SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>61</v>
+        <v>9500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145840697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151502310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Actualización RCA N°27/2012 y regularización Plan de Cierre Vertedero El Gallo de la Comuna de Andacollo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Ilustre Municipalidad de Andacollo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>61</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145840697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Teck CDA</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145199834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Continuidad Operacional Teck CDA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145199834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Optimización de las actividades de Procesamiento del Mineral Supérgeno</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03/08/2017</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132596152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN DE LAS ACTIVIDADES DE PROCESAMIENTO DEL MINERAL SUPÉRGENO</t>
+          <t>Optimización de las actividades de Procesamiento del Mineral Supérgeno</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>26/04/2017</t>
+          <t>03/08/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132329978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132596152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Optimización de las actividades de procesamiento del Mineral Supérgeno</t>
+          <t>OPTIMIZACIÓN DE LAS ACTIVIDADES DE PROCESAMIENTO DEL MINERAL SUPÉRGENO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16/02/2017</t>
+          <t>26/04/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132170175&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132329978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Aguas Servidas, comuna de Andacollo, región de Coquimbo</t>
+          <t>Optimización de las actividades de procesamiento del Mineral Supérgeno</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aguas del Valle S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2718</v>
+        <v>1300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/01/2017</t>
+          <t>16/02/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132086191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132170175&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/12/2016</t>
+          <t>19/01/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131961257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132086191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Central de Respaldo El Manzano</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Aguas Servidas, comuna de Andacollo, región de Coquimbo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PRIME ENERGIA SPA</t>
+          <t>Aguas del Valle S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>70000</v>
+        <v>2718</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/12/2015</t>
+          <t>22/12/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131007664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131961257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Central de Respaldo El Manzano</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>PRIME ENERGIA SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>22/12/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131007664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Central de Respaldo El Manzano</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PRIME ENERGIA SPA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18/11/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130911564&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lixiviación de Mineral Heap</t>
+          <t>Central de Respaldo El Manzano</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>PRIME ENERGIA SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8300</v>
+        <v>70000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11/03/2015</t>
+          <t>18/11/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130314021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130911564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Lixiviación de Mineral Heap</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>8300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>11/03/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130314021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación RCA N°16, Continuidad Operacional 2015 - 2020</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03/07/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129600322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Modificación RCA N°16, Continuidad Operacional 2015 - 2020</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>03/07/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129600322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación RCA N°16, Continuidad Operacional 2015 - 2020</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129566691&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15/06/2014</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129559014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129566691&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto Extracción de Aridos e Instalaciones Asociadas: Pozo el Manzano</t>
+          <t>Modificación RCA N°16, Continuidad Operacional 2015 - 2020</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/06/2014</t>
+          <t>15/06/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129545951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129559014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Andacollo Oro: Continuidad Operacional 2015 - 2020</t>
+          <t>Proyecto Extracción de Aridos e Instalaciones Asociadas: Pozo el Manzano</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>1700</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14/05/2014</t>
+          <t>13/06/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129479024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129545951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>07/05/2014</t>
+          <t>14/05/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129456994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129479024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Extracción de Aridos e Instalaciones Asociadas Pozo El Manzano</t>
+          <t>Andacollo Oro: Continuidad Operacional 2015 - 2020</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1870</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/04/2014</t>
+          <t>07/05/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129393364&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129456994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04/04/2014</t>
+          <t>23/04/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129370150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129393364&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Extracción de Aridos e Instalaciones Asociadas Pozo El Manzano</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>1870</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>04/04/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129370150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE ÓXIDO DE CALCIO REGIONES II, III Y IV</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PIETRO DEPETRIS E HIJOS Y CÍA. LTDA.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3708</v>
+        <v>1200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128914675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE ÓXIDO DE CALCIO REGIONES II, III Y IV</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>PIETRO DEPETRIS E HIJOS Y CÍA. LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>800</v>
+        <v>3708</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>13/12/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128914675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nuevas pilas de lixiviación</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>03/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128642013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Nuevas pilas de lixiviación</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>12500</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>03/10/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128642013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2050</v>
+        <v>12500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1500</v>
+        <v>2475</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2450</v>
+        <v>1500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>15000</v>
+        <v>2450</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Proyecto Andacollo Oro - Medidas para el cumplimiento del Plan de Descontaminación de Andacollo</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>05/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RECUPERACION DE SUELOS CONTAMINADOS POR RELAVES ABANDONADOS</t>
+          <t>Proyecto Andacollo Oro - Medidas para el cumplimiento del Plan de Descontaminación de Andacollo</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>410</v>
+        <v>32000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>25/06/2012</t>
+          <t>05/07/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6938730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7081481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>RECUPERACION DE SUELOS CONTAMINADOS POR RELAVES ABANDONADOS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>410</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>25/06/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6938730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LAS REGIONES II-III Y IV</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Importadora y Exportadora Fos Trade Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6862251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LAS REGIONES II-III Y IV</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Importadora y Exportadora Fos Trade Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/05/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6862251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Post Cierre Vertedero El Gallo de la Comuna de Andacollo</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ilustre municipalidad de andacollo</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>965</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11/08/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Extracción Gravitacional de Metales</t>
+          <t>Plan de Cierre y Post Cierre Vertedero El Gallo de la Comuna de Andacollo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CORPSA S.A.</t>
+          <t>ilustre municipalidad de andacollo</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>6500</v>
+        <v>965</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/06/2011</t>
+          <t>11/08/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5870089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Extracción Gravitacional de Metales</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>CORPSA S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/06/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Planta Metalúrgica Gravitacional Carolina, Tecnología Limpia</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CORPSA S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Planta Metalúrgica Gravitacional Carolina, Tecnología Limpia</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>CORPSA S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5525179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>150</v>
+        <v>12000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>19000</v>
+        <v>150</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Ampliación Nº2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>75000</v>
+        <v>19000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>08/02/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5318251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>19000</v>
+        <v>75000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>19/11/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PLANTA METALURGICA GRAVITACIONAL DE ORO CAROLINA</t>
+          <t>TRANSPORTE DE ÁCIDO SULFURICO EN LA I, II, III, IV, V Y REGION METROPOLITANA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CORPSA S.A.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/11/2010</t>
+          <t>19/11/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5072758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5076623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
+          <t>PLANTA METALURGICA GRAVITACIONAL DE ORO CAROLINA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Hurcam Spa.</t>
+          <t>CORPSA S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05/11/2010</t>
+          <t>15/11/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5072758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>transporte de acido sulfúrico en la I, II, III, IV, V Y Región Metropolitana</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Hurcam Spa.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>05/11/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5044515&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>17700</v>
+        <v>150</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,30 +4408,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental, Planta metalúrgica gravitacional de oro Carolina, proceso metalúrgico de tecnología limpia</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CORPSA S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/09/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4923856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,40 +4456,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Estudio de Impacto Ambiental, Planta metalúrgica gravitacional de oro Carolina, proceso metalúrgico de tecnología limpia</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>CORPSA S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1750</v>
+        <v>6000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>10/09/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4923856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>600</v>
+        <v>1750</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>15/07/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SOTRASER S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>410</v>
+        <v>600</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>15/07/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4350518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico a granel entre la Regiones de Arica-Parinacota y de Valparaíso, incluida la Región Metropolitana</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SOTRASER S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4715470&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2000</v>
+        <v>4050</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Ácido Sulfúrico por Regiones II, III y IV (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>09/11/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4164971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,36 +5512,40 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>70000</v>
+        <v>27</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>14/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,40 +5560,36 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>28</v>
+        <v>70000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>14/08/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación del Proyecto ROM (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,30 +5662,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1390</v>
+        <v>800</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06/03/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3549594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Modificación y Ampliación del Proyecto ROM (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,30 +5710,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>1390</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>06/03/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3549594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificación de 3,77 km Línea de Transmisión 110 kv El Peñón-Andacollo, sector Carmen de Andacollo (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,30 +5806,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>22/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3436070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE DE ACIDO SULFURICO ENTRE LAS REGIONES I Y V (e-seia)</t>
+          <t>Modificación de 3,77 km Línea de Transmisión 110 kv El Peñón-Andacollo, sector Carmen de Andacollo (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,30 +5854,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>550</v>
+        <v>671</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>28/11/2008</t>
+          <t>22/12/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3267112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3436070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>PROYECTO TRANSPORTE DE ACIDO SULFURICO ENTRE LAS REGIONES I Y V (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>28/11/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3267112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,25 +5955,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,25 +6003,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,25 +6051,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,25 +6099,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,11 +6147,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6160,12 +6160,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,25 +6243,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,25 +6387,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,25 +6435,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,25 +6483,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,11 +6579,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6592,12 +6592,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica y Subestación de Distribución (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,30 +6622,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>16400</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>08/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica y Subestación de Distribución (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>16400</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>08/07/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,15 +6723,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>30/06/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Andacollo (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,30 +6862,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Andacollo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2736952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Plan Regulador Comunal de Andacollo (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,20 +6910,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Ilustre Municipalidad de Andacollo</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2736952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,26 +6948,30 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Modificación Plan Minero 2007-2010</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>18/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6977,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2687797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,14 +6996,10 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELECTRICA 1X220 KV PAN DE AZUCAR ANDACOLLO (e-seia)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Modificación Plan Minero 2007-2010</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
           <t>Cuarta</t>
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>8300</v>
+        <v>3500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>12/12/2007</t>
+          <t>18/01/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2572700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2687797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LINEA DE TRANSMISION ELÉCTRICA 1X220 KV PAN DE AZUCAR- ANDACOLLO (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN ELECTRICA 1X220 KV PAN DE AZUCAR ANDACOLLO (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>03/12/2007</t>
+          <t>12/12/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2543912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2572700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Plan de Cierre Vertedero de Andacollo (e-seia)</t>
+          <t>LINEA DE TRANSMISION ELÉCTRICA 1X220 KV PAN DE AZUCAR- ANDACOLLO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Andacollo</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>86</v>
+        <v>8300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/11/2007</t>
+          <t>03/12/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2505062&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2543912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Extensión Oeste del Actual Area de Lixiviación (e-seia)</t>
+          <t>Plan de Cierre Vertedero de Andacollo (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,15 +7151,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Ilustre Municipalidad de Andacollo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1524</v>
+        <v>86</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>07/11/2007</t>
+          <t>16/11/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2475610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2505062&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Extensión Oeste del Actual Area de Lixiviación (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7194,20 +7194,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>429</v>
+        <v>1524</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>07/11/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2475610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,25 +7295,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,25 +7343,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,25 +7439,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,25 +7487,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,25 +7583,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,17 +7639,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7687,17 +7687,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,15 +7727,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,17 +7783,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Plan Minero 2007-2010 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7818,30 +7818,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Plan Minero 2007-2010 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7866,16 +7866,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,25 +7919,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,25 +8015,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Botadero de Estériles Oeste (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,30 +8058,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>17/03/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858068&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AMPLIACION DE RUTAS TRANSPORTE TERRESTRE DE SUSTANCIAS TOXICAS (e-seia)</t>
+          <t>Botadero de Estériles Oeste (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8106,30 +8106,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>14/03/2006</t>
+          <t>17/03/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1342927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=858068&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,30 +8144,30 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Hipógeno</t>
+          <t>AMPLIACION DE RUTAS TRANSPORTE TERRESTRE DE SUSTANCIAS TOXICAS (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>350000</v>
+        <v>69</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1305291&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1342927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,30 +8192,30 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Hipógeno</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>72</v>
+        <v>350000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1305291&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8263,17 +8263,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,25 +8303,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8359,17 +8359,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Adecuación y Mejoramiento del Area de lixiviación (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8394,30 +8394,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1064309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Modificación Proyecto Adecuación y Mejoramiento del Area de lixiviación (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,20 +8442,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1064309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8490,20 +8490,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>05/08/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PROYECTO DESARROLLO FASE IV - ANDACOLLO ORO (e-seia)</t>
+          <t>ACTUALIZACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE COQUIMBO (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Coquimbo</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>05/08/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=645194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Lixiviación de Minerales de Baja Ley (ROM) (e-seia)</t>
+          <t>PROYECTO DESARROLLO FASE IV - ANDACOLLO ORO (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8591,15 +8591,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>COMPAÑÍA MINERA E INMOBILIARIA DRAGONES SPA.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>22/12/2004</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=545412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=645194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Lixiviación de Minerales de Baja Ley (ROM) (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8634,20 +8634,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2119</v>
+        <v>4400</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>22/12/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=545412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Adecuación y mejoramiento del área de lixiviación (e-seia)</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,20 +8682,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2500</v>
+        <v>2119</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05/03/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=55252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Adecuación y mejoramiento del área de lixiviación (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,20 +8730,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>05/03/2003</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=55252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Botadero Sur proyecto Andacollo Cobre</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,20 +8778,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>19/08/2002</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Modificación y Ampliación Botadero Sur proyecto Andacollo Cobre</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8826,20 +8826,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>19/08/2002</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Secado y Deshidratado de Algas Pardas Picadas</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8922,20 +8922,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Comercial Servicios Ingenieria y Exportacion MDos Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>13/11/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Botadero Norte</t>
+          <t>Secado y Deshidratado de Algas Pardas Picadas</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8975,15 +8975,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Comercial Servicios Ingenieria y Exportacion MDos Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>02/11/2000</t>
+          <t>13/11/2001</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4743&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,30 +9008,30 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Ampliación Botadero Norte</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3500</v>
+        <v>30</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>02/11/2000</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,40 +9056,40 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Proyecto de Expansión Pila de Lixiviación-fase IV</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>23/03/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico en Camión en las Regiones II y IV</t>
+          <t>Proyecto de Expansión Pila de Lixiviación-fase IV</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9114,30 +9114,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Codelco Chile División Salvador</t>
+          <t>Compañía Minera Dayton Sociedad Contractual Minera</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>30/09/1999</t>
+          <t>23/03/2000</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Transporte de Ácido Sulfúrico en Camión en las Regiones II y IV</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9167,15 +9167,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Codelco Chile División Salvador</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/09/1999</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,30 +9200,30 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Proyecto Minero Andacollo-Cobre</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Compañía Minera Carmen de Andacollo</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>63800</v>
+        <v>2500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>11/01/1995</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,12 +9248,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>dfdsfsdf</t>
+          <t>Proyecto Minero Andacollo-Cobre</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -9263,21 +9263,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Empresa Prueba de Ingreso Proyecto</t>
+          <t>Compañía Minera Carmen de Andacollo</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" t="inlineStr"/>
+        <v>63800</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>11/01/1995</t>
+        </is>
+      </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Eliminados</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340883&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,12 +9296,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>EIA 2015</t>
+          <t>dfdsfsdf</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9321,10 +9325,54 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130340883&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Andacollo</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>EIA 2015</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130993090&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J187" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>Andacollo</t>
         </is>

--- a/data/Andacollo.xlsx
+++ b/data/Andacollo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
